--- a/data/trans_dic/P23_1_2016_2023_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2023196670855362</v>
+        <v>0.2057407774315553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1423717768579766</v>
+        <v>0.138865012127505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1525649543137255</v>
+        <v>0.152341563712863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1234393336217636</v>
+        <v>0.1228874599545795</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1942964233014891</v>
+        <v>0.193022599587443</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1416696654963613</v>
+        <v>0.1390624041301081</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2911332271658344</v>
+        <v>0.2948931286412664</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2056446857809618</v>
+        <v>0.2069680864052437</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2395243931878362</v>
+        <v>0.2370940660560968</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1760944276666136</v>
+        <v>0.1772200009604445</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2519117812076384</v>
+        <v>0.2541775766298953</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1851661999732196</v>
+        <v>0.1828014090109559</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2336464045904408</v>
+        <v>0.2310122904454432</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1628441124636882</v>
+        <v>0.1630920433306655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2238414024860295</v>
+        <v>0.2272557174456074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1820043126535989</v>
+        <v>0.1845862695999857</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.241004854100438</v>
+        <v>0.2382344196017784</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1791318619720282</v>
+        <v>0.1804089664308446</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3277238422129145</v>
+        <v>0.3277905965797336</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2371836447012695</v>
+        <v>0.2342968903335168</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.320548864096951</v>
+        <v>0.3179970115516705</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2570983278253459</v>
+        <v>0.2571445015029046</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3078783384409305</v>
+        <v>0.3072934742721494</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2323642386399101</v>
+        <v>0.2330737760245352</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.4152749949392132</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2705918526056845</v>
+        <v>0.2705918526056844</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3160504541895794</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3745991113517295</v>
+        <v>0.3730107120341308</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2272229365835992</v>
+        <v>0.2249211866667807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2455828523731535</v>
+        <v>0.243852956685835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1083705541519043</v>
+        <v>0.1052147273289972</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3520343185852907</v>
+        <v>0.3531568257736463</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2040848162422703</v>
+        <v>0.2024749095066451</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4619156526077492</v>
+        <v>0.4565838907845644</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.31481476426292</v>
+        <v>0.3128495886447862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.390481387650606</v>
+        <v>0.3942303382033486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1932822742185745</v>
+        <v>0.1866576475843667</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4293106030228583</v>
+        <v>0.4279272979774009</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2674206677893852</v>
+        <v>0.2748522885217063</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +858,13 @@
         <v>0.37448073392036</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.320972799562118</v>
+        <v>0.3209727995621179</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3828282515085361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2692450329252407</v>
+        <v>0.2692450329252408</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3779697106486035</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3453150439636258</v>
+        <v>0.3454882482887031</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2917359657073365</v>
+        <v>0.2913650336980392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3509398756996372</v>
+        <v>0.3504047773732816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2415850077095746</v>
+        <v>0.2408051799185284</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.358102034936235</v>
+        <v>0.3564426884463149</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2769546682296469</v>
+        <v>0.2790490272545754</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4049532857951489</v>
+        <v>0.4026689167679151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3516763294620143</v>
+        <v>0.3534148539699835</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.420164889285481</v>
+        <v>0.4159246684925921</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2968948628299012</v>
+        <v>0.2948241074603569</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4006179706157495</v>
+        <v>0.4004981958190324</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3219064650744839</v>
+        <v>0.3222844300436777</v>
       </c>
     </row>
     <row r="16">
@@ -940,13 +940,13 @@
         <v>0.3886264895679605</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3238501298741669</v>
+        <v>0.3238501298741668</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.29178990819968</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2097164804320239</v>
+        <v>0.209716480432024</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3360558748029721</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3506668068307939</v>
+        <v>0.3491468493235538</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2787496938133999</v>
+        <v>0.2825743299469775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2552375649681985</v>
+        <v>0.2581367371345965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1863914940902685</v>
+        <v>0.1871293271847327</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3130117733814774</v>
+        <v>0.3107286249992949</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2342098362416222</v>
+        <v>0.2337138485848881</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.42912097757164</v>
+        <v>0.429201828580404</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3677747161485441</v>
+        <v>0.3702036713694769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3282628953172571</v>
+        <v>0.327954421140495</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2361031524780661</v>
+        <v>0.235650790091775</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3627877303832836</v>
+        <v>0.3647862475354309</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2802912704653012</v>
+        <v>0.2802625562354043</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.2505875730181065</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1142590443645859</v>
+        <v>0.114259044364586</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1593411980299606</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2047718596391183</v>
+        <v>0.1973955701474995</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06201658230763438</v>
+        <v>0.05916052856136153</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1389119450525689</v>
+        <v>0.1382197484438158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08713501366722799</v>
+        <v>0.08888222522834556</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.157066642297174</v>
+        <v>0.1572857281716351</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08834054362663718</v>
+        <v>0.09032473545945419</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3072945909604968</v>
+        <v>0.3027803343543894</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1936933698044618</v>
+        <v>0.1957596583610151</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1835431410595301</v>
+        <v>0.1838991434867559</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1326602774586986</v>
+        <v>0.1334032026113781</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1999126956490561</v>
+        <v>0.1988143557130819</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1358985491727367</v>
+        <v>0.1329724227716281</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.346069940469465</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.258860309757089</v>
+        <v>0.2588603097570889</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2614684016767285</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3299840062873319</v>
+        <v>0.3288447344843508</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2408346845926926</v>
+        <v>0.2425827789116432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2473039649685615</v>
+        <v>0.2472067815248029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1792130839496117</v>
+        <v>0.1784608564891048</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2919417400083117</v>
+        <v>0.2904523036404058</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2140085589020456</v>
+        <v>0.214666137961023</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3638285473200248</v>
+        <v>0.3622037620052934</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2757109156157955</v>
+        <v>0.2763574877132426</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2762495150329685</v>
+        <v>0.2766853583858882</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2032313780455477</v>
+        <v>0.2011722449687611</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3142177166923744</v>
+        <v>0.3135601367415606</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2349735691417016</v>
+        <v>0.235617538074142</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>86814</v>
+        <v>88282</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>78392</v>
+        <v>76462</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52948</v>
+        <v>52871</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>60289</v>
+        <v>60020</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>150803</v>
+        <v>149814</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>147199</v>
+        <v>144490</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124923</v>
+        <v>126536</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>113232</v>
+        <v>113960</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83128</v>
+        <v>82285</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>86006</v>
+        <v>86556</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>195521</v>
+        <v>197279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>192393</v>
+        <v>189936</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>87887</v>
+        <v>86896</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>78688</v>
+        <v>78808</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>83100</v>
+        <v>84368</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77014</v>
+        <v>78106</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>180127</v>
+        <v>178057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>162357</v>
+        <v>163515</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>123275</v>
+        <v>123300</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>114610</v>
+        <v>113215</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>119002</v>
+        <v>118055</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>108789</v>
+        <v>108809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>230109</v>
+        <v>229671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>210604</v>
+        <v>211248</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>195509</v>
+        <v>194680</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>107161</v>
+        <v>106076</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40797</v>
+        <v>40510</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20319</v>
+        <v>19727</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>242212</v>
+        <v>242985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>134514</v>
+        <v>133453</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>241080</v>
+        <v>238298</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>148470</v>
+        <v>147544</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64868</v>
+        <v>65491</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36240</v>
+        <v>34998</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>295381</v>
+        <v>294429</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>176259</v>
+        <v>181158</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>396689</v>
+        <v>396888</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>330199</v>
+        <v>329779</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>289507</v>
+        <v>289066</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>207886</v>
+        <v>207215</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>706794</v>
+        <v>703519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>551791</v>
+        <v>555964</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>465200</v>
+        <v>462576</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>398042</v>
+        <v>400010</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>346614</v>
+        <v>343116</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>255481</v>
+        <v>253699</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>790709</v>
+        <v>790472</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>641351</v>
+        <v>642104</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>217661</v>
+        <v>216718</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>158018</v>
+        <v>160186</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>188150</v>
+        <v>190287</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>154732</v>
+        <v>155344</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>425026</v>
+        <v>421926</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>327197</v>
+        <v>326504</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>266358</v>
+        <v>266408</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>208485</v>
+        <v>209862</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>241981</v>
+        <v>241753</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>196000</v>
+        <v>195624</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>492615</v>
+        <v>495329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>391574</v>
+        <v>391534</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>58799</v>
+        <v>56681</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14641</v>
+        <v>13967</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>149974</v>
+        <v>149226</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>73566</v>
+        <v>75042</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>214675</v>
+        <v>214974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>95440</v>
+        <v>97584</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>88238</v>
+        <v>86942</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>45728</v>
+        <v>46216</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>198159</v>
+        <v>198543</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>112003</v>
+        <v>112630</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>273236</v>
+        <v>271734</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>146820</v>
+        <v>143659</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1116595</v>
+        <v>1112740</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>828532</v>
+        <v>834546</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>872033</v>
+        <v>871690</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>651258</v>
+        <v>648524</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2017301</v>
+        <v>2007009</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1513947</v>
+        <v>1518599</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1231118</v>
+        <v>1225620</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>948515</v>
+        <v>950739</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>974099</v>
+        <v>975636</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>738540</v>
+        <v>731057</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2171227</v>
+        <v>2166683</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1662259</v>
+        <v>1666814</v>
       </c>
     </row>
     <row r="32">
